--- a/biology/Botanique/Diplotaxis_gorgadensis/Diplotaxis_gorgadensis.xlsx
+++ b/biology/Botanique/Diplotaxis_gorgadensis/Diplotaxis_gorgadensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diplotaxis gorgadensis est une espèce de plantes à fleurs de la famille des Brassicacées endémique du Cap-Vert.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce n'est présente que sur l'île de Santo Antão où elle pousse principalement entre 450 et 1 300 m d'altitude. Elle vit de préférence dans les zones humides de montagne mais est également présente dans les zones sub-humides et semi-arides[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce n'est présente que sur l'île de Santo Antão où elle pousse principalement entre 450 et 1 300 m d'altitude. Elle vit de préférence dans les zones humides de montagne mais est également présente dans les zones sub-humides et semi-arides.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (17 janvier 2018)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (17 janvier 2018) :
 sous-espèce Diplotaxis gorgadensis subsp. brochmannii
 sous-espèce Diplotaxis gorgadensis subsp. gorgadensis</t>
         </is>
